--- a/日本版コアインボイス/国税庁Q&A_R2-09改訂2021-02-12.xlsx
+++ b/日本版コアインボイス/国税庁Q&A_R2-09改訂2021-02-12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\pontsoleil\Desktop\EIPA\日本版コアインボイス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93434325-2DDC-43F2-B2BB-BCB6527A0B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9C5FA-034B-4182-A2D3-31E1F1825C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="105" windowWidth="25215" windowHeight="15510" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
+    <workbookView xWindow="1515" yWindow="0" windowWidth="25215" windowHeight="15510" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="適格(返還)請求書" sheetId="12" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="427">
   <si>
     <t>納品書</t>
     <rPh sb="0" eb="3">
@@ -2265,6 +2265,25 @@
       <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>jbt-007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産譲渡日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX point date</t>
+  </si>
+  <si>
+    <t>TAX point date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[18]</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4456,83 +4475,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4855,10 +4874,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1004"/>
+  <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75"/>
@@ -4887,7 +4906,7 @@
     <col min="24" max="24" width="5" style="11" customWidth="1"/>
     <col min="25" max="26" width="5" style="377" customWidth="1"/>
     <col min="27" max="27" width="40.375" style="377" customWidth="1"/>
-    <col min="28" max="28" width="21.875" style="393" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.875" style="391" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="12.625" style="245"/>
   </cols>
   <sheetData>
@@ -4947,11 +4966,11 @@
         <f t="shared" ref="T2:T3" si="0">K1</f>
         <v>3456</v>
       </c>
-      <c r="X2" s="394" t="s">
+      <c r="X2" s="392" t="s">
         <v>324</v>
       </c>
-      <c r="Y2" s="395"/>
-      <c r="Z2" s="395"/>
+      <c r="Y2" s="393"/>
+      <c r="Z2" s="393"/>
       <c r="AA2" s="255"/>
       <c r="AB2" s="256">
         <f>T2</f>
@@ -4986,10 +5005,10 @@
         <f t="shared" si="0"/>
         <v>44177</v>
       </c>
-      <c r="X3" s="396" t="s">
+      <c r="X3" s="394" t="s">
         <v>325</v>
       </c>
-      <c r="AA3" s="397"/>
+      <c r="AA3" s="395"/>
       <c r="AB3" s="261">
         <f>T3</f>
         <v>44177</v>
@@ -5001,31 +5020,29 @@
       <c r="E4" s="262"/>
       <c r="J4" s="248"/>
       <c r="L4" s="257"/>
-      <c r="N4" s="263" t="s">
-        <v>328</v>
-      </c>
-      <c r="O4" s="264" t="s">
-        <v>178</v>
-      </c>
-      <c r="P4" s="265" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="266"/>
-      <c r="S4" s="266" t="s">
-        <v>332</v>
-      </c>
-      <c r="T4" s="267">
-        <f>D18</f>
-        <v>44227</v>
-      </c>
-      <c r="X4" s="396" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA4" s="397"/>
+      <c r="N4" s="258" t="s">
+        <v>422</v>
+      </c>
+      <c r="O4" s="259" t="s">
+        <v>426</v>
+      </c>
+      <c r="P4" s="260" t="s">
+        <v>423</v>
+      </c>
+      <c r="S4" s="245" t="s">
+        <v>425</v>
+      </c>
+      <c r="T4" s="261">
+        <f>C8</f>
+        <v>44177</v>
+      </c>
+      <c r="X4" s="394" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA4" s="395"/>
       <c r="AB4" s="261">
         <f>T4</f>
-        <v>44227</v>
+        <v>44177</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -5037,28 +5054,32 @@
         <v>181</v>
       </c>
       <c r="L5" s="268"/>
-      <c r="N5" s="269" t="s">
-        <v>329</v>
-      </c>
-      <c r="O5" s="270" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="271" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="272" t="s">
-        <v>333</v>
-      </c>
-      <c r="T5" s="273"/>
-      <c r="X5" s="398" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y5" s="372"/>
-      <c r="Z5" s="372"/>
-      <c r="AA5" s="399"/>
-      <c r="AB5" s="273"/>
+      <c r="N5" s="263" t="s">
+        <v>328</v>
+      </c>
+      <c r="O5" s="264" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="265" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="266"/>
+      <c r="S5" s="266" t="s">
+        <v>332</v>
+      </c>
+      <c r="T5" s="267">
+        <f>D18</f>
+        <v>44227</v>
+      </c>
+      <c r="X5" s="394" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA5" s="395"/>
+      <c r="AB5" s="261">
+        <f>T5</f>
+        <v>44227</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1">
       <c r="A6" s="247"/>
@@ -5078,31 +5099,28 @@
         <v>188</v>
       </c>
       <c r="L6" s="268"/>
-      <c r="N6" s="258" t="s">
-        <v>330</v>
-      </c>
-      <c r="O6" s="259" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="274" t="s">
-        <v>190</v>
-      </c>
-      <c r="S6" s="245" t="s">
-        <v>334</v>
-      </c>
-      <c r="T6" s="275" t="s">
-        <v>181</v>
-      </c>
-      <c r="X6" s="400"/>
-      <c r="Y6" s="377" t="s">
-        <v>334</v>
-      </c>
+      <c r="N6" s="269" t="s">
+        <v>329</v>
+      </c>
+      <c r="O6" s="270" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="271" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="272"/>
+      <c r="S6" s="272" t="s">
+        <v>333</v>
+      </c>
+      <c r="T6" s="273"/>
+      <c r="X6" s="396" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y6" s="372"/>
+      <c r="Z6" s="372"/>
       <c r="AA6" s="397"/>
-      <c r="AB6" s="275" t="str">
-        <f>T6</f>
-        <v>△△商店（株）</v>
-      </c>
+      <c r="AB6" s="273"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="247"/>
@@ -5133,32 +5151,30 @@
         <v>198</v>
       </c>
       <c r="L7" s="280"/>
-      <c r="N7" s="263" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="264" t="s">
-        <v>187</v>
-      </c>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="266" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="266"/>
-      <c r="S7" s="266" t="s">
-        <v>335</v>
-      </c>
-      <c r="T7" s="281">
-        <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="400"/>
+      <c r="N7" s="258" t="s">
+        <v>330</v>
+      </c>
+      <c r="O7" s="259" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="260"/>
+      <c r="Q7" s="274" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="245" t="s">
+        <v>334</v>
+      </c>
+      <c r="T7" s="275" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" s="398"/>
       <c r="Y7" s="377" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA7" s="397"/>
-      <c r="AB7" s="304">
+        <v>334</v>
+      </c>
+      <c r="AA7" s="395"/>
+      <c r="AB7" s="275" t="str">
         <f>T7</f>
-        <v>0</v>
+        <v>△△商店（株）</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -5193,28 +5209,33 @@
       </c>
       <c r="L8" s="286"/>
       <c r="M8" s="284"/>
-      <c r="N8" s="269" t="s">
-        <v>331</v>
-      </c>
-      <c r="O8" s="287" t="s">
-        <v>203</v>
-      </c>
-      <c r="P8" s="271" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="272"/>
-      <c r="S8" s="272" t="s">
-        <v>336</v>
-      </c>
-      <c r="T8" s="273"/>
-      <c r="X8" s="398" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y8" s="372"/>
-      <c r="Z8" s="372"/>
-      <c r="AA8" s="399"/>
-      <c r="AB8" s="273"/>
+      <c r="N8" s="263" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="264" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="266" t="s">
+        <v>199</v>
+      </c>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266" t="s">
+        <v>335</v>
+      </c>
+      <c r="T8" s="281">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="398"/>
+      <c r="Y8" s="377" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA8" s="395"/>
+      <c r="AB8" s="304">
+        <f>T8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="247"/>
@@ -5246,33 +5267,28 @@
         <v>550</v>
       </c>
       <c r="L9" s="286"/>
-      <c r="N9" s="293" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="294" t="s">
-        <v>174</v>
-      </c>
-      <c r="P9" s="295"/>
-      <c r="Q9" s="296" t="s">
-        <v>207</v>
-      </c>
-      <c r="R9" s="296"/>
-      <c r="S9" s="296" t="s">
-        <v>337</v>
-      </c>
-      <c r="T9" s="297" t="str">
-        <f>B3</f>
-        <v>（株）〇〇</v>
-      </c>
-      <c r="X9" s="400"/>
-      <c r="Y9" s="377" t="s">
-        <v>337</v>
-      </c>
+      <c r="N9" s="269" t="s">
+        <v>331</v>
+      </c>
+      <c r="O9" s="287" t="s">
+        <v>203</v>
+      </c>
+      <c r="P9" s="271" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q9" s="272"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="272" t="s">
+        <v>336</v>
+      </c>
+      <c r="T9" s="273"/>
+      <c r="X9" s="396" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y9" s="372"/>
+      <c r="Z9" s="372"/>
       <c r="AA9" s="397"/>
-      <c r="AB9" s="304" t="str">
-        <f>T9</f>
-        <v>（株）〇〇</v>
-      </c>
+      <c r="AB9" s="273"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="247"/>
@@ -5292,28 +5308,33 @@
         <v>13750</v>
       </c>
       <c r="L10" s="286"/>
-      <c r="N10" s="381" t="s">
-        <v>407</v>
-      </c>
-      <c r="O10" s="382" t="s">
-        <v>203</v>
-      </c>
-      <c r="P10" s="372" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272" t="s">
-        <v>408</v>
-      </c>
-      <c r="T10" s="300"/>
-      <c r="X10" s="398" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y10" s="372"/>
-      <c r="Z10" s="372"/>
-      <c r="AA10" s="399"/>
-      <c r="AB10" s="300"/>
+      <c r="N10" s="293" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="294" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="295"/>
+      <c r="Q10" s="296" t="s">
+        <v>207</v>
+      </c>
+      <c r="R10" s="296"/>
+      <c r="S10" s="296" t="s">
+        <v>337</v>
+      </c>
+      <c r="T10" s="297" t="str">
+        <f>B3</f>
+        <v>（株）〇〇</v>
+      </c>
+      <c r="X10" s="398"/>
+      <c r="Y10" s="377" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA10" s="395"/>
+      <c r="AB10" s="304" t="str">
+        <f>T10</f>
+        <v>（株）〇〇</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="247"/>
@@ -5335,31 +5356,28 @@
       <c r="K11" s="257"/>
       <c r="L11" s="286"/>
       <c r="M11" s="284"/>
-      <c r="N11" s="354" t="s">
-        <v>396</v>
-      </c>
-      <c r="O11" s="354" t="s">
-        <v>212</v>
-      </c>
-      <c r="P11" s="377"/>
-      <c r="Q11" s="245" t="s">
-        <v>403</v>
-      </c>
-      <c r="S11" s="245" t="s">
-        <v>404</v>
-      </c>
-      <c r="T11" s="304">
-        <v>7654321</v>
-      </c>
-      <c r="X11" s="400"/>
-      <c r="Y11" s="377" t="s">
-        <v>404</v>
-      </c>
+      <c r="N11" s="380" t="s">
+        <v>407</v>
+      </c>
+      <c r="O11" s="381" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="372" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="272" t="s">
+        <v>408</v>
+      </c>
+      <c r="T11" s="300"/>
+      <c r="X11" s="396" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y11" s="372"/>
+      <c r="Z11" s="372"/>
       <c r="AA11" s="397"/>
-      <c r="AB11" s="304">
-        <f>T11</f>
-        <v>7654321</v>
-      </c>
+      <c r="AB11" s="300"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="247"/>
@@ -5379,29 +5397,29 @@
       </c>
       <c r="L12" s="286"/>
       <c r="N12" s="354" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O12" s="354" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P12" s="377"/>
       <c r="Q12" s="245" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S12" s="245" t="s">
-        <v>406</v>
-      </c>
-      <c r="T12" s="261" t="s">
-        <v>215</v>
-      </c>
-      <c r="X12" s="400"/>
+        <v>404</v>
+      </c>
+      <c r="T12" s="304">
+        <v>7654321</v>
+      </c>
+      <c r="X12" s="398"/>
       <c r="Y12" s="377" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA12" s="397"/>
-      <c r="AB12" s="261" t="str">
-        <f>T12</f>
-        <v>△△　△△△</v>
+        <v>404</v>
+      </c>
+      <c r="AA12" s="395"/>
+      <c r="AB12" s="304">
+        <f t="shared" ref="AB12:AB29" si="1">T12</f>
+        <v>7654321</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -5437,29 +5455,29 @@
       </c>
       <c r="L13" s="286"/>
       <c r="N13" s="354" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="O13" s="354" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P13" s="377"/>
       <c r="Q13" s="245" t="s">
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="S13" s="245" t="s">
-        <v>420</v>
-      </c>
-      <c r="T13" s="304" t="s">
-        <v>223</v>
-      </c>
-      <c r="X13" s="400"/>
+        <v>406</v>
+      </c>
+      <c r="T13" s="261" t="s">
+        <v>215</v>
+      </c>
+      <c r="X13" s="398"/>
       <c r="Y13" s="377" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA13" s="397"/>
-      <c r="AB13" s="304" t="str">
-        <f>T13</f>
-        <v>■■銀行</v>
+        <v>406</v>
+      </c>
+      <c r="AA13" s="395"/>
+      <c r="AB13" s="261" t="str">
+        <f t="shared" si="1"/>
+        <v>△△　△△△</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -5484,29 +5502,29 @@
       </c>
       <c r="L14" s="286"/>
       <c r="N14" s="354" t="s">
-        <v>398</v>
+        <v>220</v>
       </c>
       <c r="O14" s="354" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P14" s="377"/>
       <c r="Q14" s="245" t="s">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="S14" s="245" t="s">
-        <v>411</v>
-      </c>
-      <c r="T14" s="304">
-        <v>3456</v>
-      </c>
-      <c r="X14" s="400"/>
+        <v>420</v>
+      </c>
+      <c r="T14" s="304" t="s">
+        <v>223</v>
+      </c>
+      <c r="X14" s="398"/>
       <c r="Y14" s="377" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA14" s="397"/>
-      <c r="AB14" s="304">
-        <f>T14</f>
-        <v>3456</v>
+        <v>420</v>
+      </c>
+      <c r="AA14" s="395"/>
+      <c r="AB14" s="304" t="str">
+        <f t="shared" si="1"/>
+        <v>■■銀行</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -5529,27 +5547,29 @@
       <c r="K15" s="257"/>
       <c r="L15" s="286"/>
       <c r="N15" s="354" t="s">
-        <v>399</v>
-      </c>
-      <c r="O15" s="304" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q15" s="380" t="s">
-        <v>412</v>
-      </c>
-      <c r="R15" s="380"/>
+        <v>398</v>
+      </c>
+      <c r="O15" s="354" t="s">
+        <v>226</v>
+      </c>
+      <c r="P15" s="377"/>
+      <c r="Q15" s="245" t="s">
+        <v>410</v>
+      </c>
       <c r="S15" s="245" t="s">
-        <v>421</v>
-      </c>
-      <c r="T15" s="304"/>
-      <c r="X15" s="400"/>
+        <v>411</v>
+      </c>
+      <c r="T15" s="304">
+        <v>3456</v>
+      </c>
+      <c r="X15" s="398"/>
       <c r="Y15" s="377" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA15" s="397"/>
+        <v>411</v>
+      </c>
+      <c r="AA15" s="395"/>
       <c r="AB15" s="304">
-        <f>T15</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3456</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -5575,29 +5595,27 @@
       </c>
       <c r="L16" s="257"/>
       <c r="N16" s="354" t="s">
-        <v>400</v>
-      </c>
-      <c r="O16" s="354" t="s">
-        <v>229</v>
-      </c>
-      <c r="P16" s="377"/>
-      <c r="Q16" s="245" t="s">
-        <v>415</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="O16" s="304" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q16" s="405" t="s">
+        <v>412</v>
+      </c>
+      <c r="R16" s="405"/>
       <c r="S16" s="245" t="s">
-        <v>416</v>
-      </c>
-      <c r="T16" s="261" t="s">
-        <v>230</v>
-      </c>
-      <c r="X16" s="400"/>
-      <c r="Z16" s="377" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA16" s="397"/>
-      <c r="AB16" s="261" t="str">
-        <f>T16</f>
-        <v>□□支店</v>
+        <v>421</v>
+      </c>
+      <c r="T16" s="304"/>
+      <c r="X16" s="398"/>
+      <c r="Y16" s="377" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA16" s="395"/>
+      <c r="AB16" s="304">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19.5" thickBot="1">
@@ -5619,29 +5637,29 @@
       <c r="K17" s="318"/>
       <c r="L17" s="257"/>
       <c r="N17" s="354" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O17" s="354" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P17" s="377"/>
       <c r="Q17" s="245" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="S17" s="245" t="s">
-        <v>417</v>
-      </c>
-      <c r="T17" s="304">
-        <v>789</v>
-      </c>
-      <c r="X17" s="400"/>
+        <v>416</v>
+      </c>
+      <c r="T17" s="261" t="s">
+        <v>230</v>
+      </c>
+      <c r="X17" s="398"/>
       <c r="Z17" s="377" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA17" s="397"/>
-      <c r="AB17" s="304">
-        <f>T17</f>
-        <v>789</v>
+        <v>416</v>
+      </c>
+      <c r="AA17" s="395"/>
+      <c r="AB17" s="261" t="str">
+        <f t="shared" si="1"/>
+        <v>□□支店</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -5657,29 +5675,30 @@
       </c>
       <c r="K18" s="320"/>
       <c r="L18" s="321"/>
-      <c r="N18" s="383" t="s">
-        <v>402</v>
-      </c>
-      <c r="O18" s="383" t="s">
-        <v>217</v>
-      </c>
+      <c r="N18" s="354" t="s">
+        <v>401</v>
+      </c>
+      <c r="O18" s="354" t="s">
+        <v>232</v>
+      </c>
+      <c r="P18" s="377"/>
       <c r="Q18" s="245" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="S18" s="245" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T18" s="304">
-        <v>1</v>
-      </c>
-      <c r="X18" s="400"/>
+        <v>789</v>
+      </c>
+      <c r="X18" s="398"/>
       <c r="Z18" s="377" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA18" s="397"/>
+        <v>417</v>
+      </c>
+      <c r="AA18" s="395"/>
       <c r="AB18" s="304">
-        <f>T18</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -5698,30 +5717,29 @@
       </c>
       <c r="K19" s="284"/>
       <c r="L19" s="286"/>
-      <c r="N19" s="322" t="s">
-        <v>235</v>
-      </c>
-      <c r="O19" s="323" t="s">
-        <v>236</v>
-      </c>
-      <c r="P19" s="324" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q19" s="325"/>
-      <c r="R19" s="325"/>
-      <c r="S19" s="325" t="s">
-        <v>338</v>
-      </c>
-      <c r="T19" s="326" t="s">
-        <v>238</v>
-      </c>
-      <c r="X19" s="396" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA19" s="397"/>
-      <c r="AB19" s="354" t="str">
-        <f>T19</f>
-        <v>1 （内税）</v>
+      <c r="N19" s="382" t="s">
+        <v>402</v>
+      </c>
+      <c r="O19" s="382" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" s="245" t="s">
+        <v>414</v>
+      </c>
+      <c r="S19" s="245" t="s">
+        <v>418</v>
+      </c>
+      <c r="T19" s="304">
+        <v>1</v>
+      </c>
+      <c r="X19" s="398"/>
+      <c r="Z19" s="377" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA19" s="395"/>
+      <c r="AB19" s="304">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -5740,30 +5758,30 @@
       </c>
       <c r="K20" s="320"/>
       <c r="L20" s="321"/>
-      <c r="N20" s="327" t="s">
-        <v>133</v>
-      </c>
-      <c r="O20" s="327" t="s">
-        <v>203</v>
-      </c>
-      <c r="P20" s="272" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="272"/>
-      <c r="R20" s="272"/>
-      <c r="S20" s="272" t="s">
-        <v>339</v>
-      </c>
-      <c r="T20" s="273"/>
-      <c r="X20" s="398" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y20" s="372"/>
-      <c r="Z20" s="372"/>
-      <c r="AA20" s="399"/>
-      <c r="AB20" s="273">
-        <f>T20</f>
-        <v>0</v>
+      <c r="N20" s="322" t="s">
+        <v>235</v>
+      </c>
+      <c r="O20" s="323" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" s="324" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q20" s="325"/>
+      <c r="R20" s="325"/>
+      <c r="S20" s="325" t="s">
+        <v>338</v>
+      </c>
+      <c r="T20" s="326" t="s">
+        <v>238</v>
+      </c>
+      <c r="X20" s="394" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA20" s="395"/>
+      <c r="AB20" s="354" t="str">
+        <f t="shared" si="1"/>
+        <v>1 （内税）</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -5782,31 +5800,30 @@
       </c>
       <c r="K21" s="320"/>
       <c r="L21" s="321"/>
-      <c r="N21" s="328" t="s">
-        <v>243</v>
-      </c>
-      <c r="O21" s="328" t="s">
-        <v>219</v>
-      </c>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="245" t="s">
-        <v>362</v>
-      </c>
-      <c r="S21" s="245" t="s">
-        <v>340</v>
-      </c>
-      <c r="T21" s="329">
-        <f>K14</f>
-        <v>-2200.0000000000005</v>
-      </c>
-      <c r="X21" s="400"/>
-      <c r="Y21" s="377" t="s">
-        <v>340</v>
-      </c>
+      <c r="N21" s="327" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="327" t="s">
+        <v>203</v>
+      </c>
+      <c r="P21" s="272" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21" s="272"/>
+      <c r="R21" s="272"/>
+      <c r="S21" s="272" t="s">
+        <v>339</v>
+      </c>
+      <c r="T21" s="273"/>
+      <c r="X21" s="396" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y21" s="372"/>
+      <c r="Z21" s="372"/>
       <c r="AA21" s="397"/>
-      <c r="AB21" s="329">
-        <f>T21</f>
-        <v>-2200.0000000000005</v>
+      <c r="AB21" s="273">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -5821,30 +5838,30 @@
       <c r="K22" s="320"/>
       <c r="L22" s="321"/>
       <c r="N22" s="328" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="O22" s="328" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="P22" s="262"/>
       <c r="Q22" s="245" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S22" s="245" t="s">
-        <v>363</v>
-      </c>
-      <c r="T22" s="330">
-        <f>J15</f>
-        <v>-200.00000000000003</v>
-      </c>
-      <c r="X22" s="400"/>
+        <v>340</v>
+      </c>
+      <c r="T22" s="329">
+        <f>K14</f>
+        <v>-2200.0000000000005</v>
+      </c>
+      <c r="X22" s="398"/>
       <c r="Y22" s="377" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA22" s="397"/>
-      <c r="AB22" s="330">
-        <f>T22</f>
-        <v>-200.00000000000003</v>
+        <v>340</v>
+      </c>
+      <c r="AA22" s="395"/>
+      <c r="AB22" s="329">
+        <f t="shared" si="1"/>
+        <v>-2200.0000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1">
@@ -5861,87 +5878,88 @@
       <c r="K23" s="334"/>
       <c r="L23" s="335"/>
       <c r="N23" s="328" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O23" s="328" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P23" s="262"/>
       <c r="Q23" s="245" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="S23" s="245" t="s">
-        <v>341</v>
-      </c>
-      <c r="T23" s="331" t="s">
-        <v>251</v>
-      </c>
-      <c r="X23" s="400"/>
+        <v>363</v>
+      </c>
+      <c r="T23" s="330">
+        <f>J15</f>
+        <v>-200.00000000000003</v>
+      </c>
+      <c r="X23" s="398"/>
       <c r="Y23" s="377" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA23" s="397"/>
-      <c r="AB23" s="331" t="str">
-        <f>T23</f>
-        <v>標準税率</v>
+        <v>363</v>
+      </c>
+      <c r="AA23" s="395"/>
+      <c r="AB23" s="330">
+        <f t="shared" si="1"/>
+        <v>-200.00000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="B24" s="245" t="s">
         <v>252</v>
       </c>
-      <c r="N24" s="336" t="s">
+      <c r="N24" s="328" t="s">
+        <v>138</v>
+      </c>
+      <c r="O24" s="328" t="s">
+        <v>249</v>
+      </c>
+      <c r="P24" s="262"/>
+      <c r="Q24" s="245" t="s">
+        <v>342</v>
+      </c>
+      <c r="S24" s="245" t="s">
+        <v>341</v>
+      </c>
+      <c r="T24" s="331" t="s">
+        <v>251</v>
+      </c>
+      <c r="X24" s="398"/>
+      <c r="Y24" s="377" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA24" s="395"/>
+      <c r="AB24" s="331" t="str">
+        <f t="shared" si="1"/>
+        <v>標準税率</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="N25" s="336" t="s">
         <v>139</v>
       </c>
-      <c r="O24" s="337" t="s">
+      <c r="O25" s="337" t="s">
         <v>182</v>
       </c>
-      <c r="P24" s="338"/>
-      <c r="Q24" s="296" t="s">
+      <c r="P25" s="338"/>
+      <c r="Q25" s="296" t="s">
         <v>343</v>
       </c>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296" t="s">
+      <c r="R25" s="296"/>
+      <c r="S25" s="296" t="s">
         <v>344</v>
       </c>
-      <c r="T24" s="339">
+      <c r="T25" s="339">
         <v>0.1</v>
       </c>
-      <c r="X24" s="400"/>
-      <c r="Y24" s="377" t="s">
+      <c r="X25" s="398"/>
+      <c r="Y25" s="377" t="s">
         <v>344</v>
       </c>
-      <c r="AA24" s="397"/>
-      <c r="AB24" s="347">
-        <f>T24</f>
+      <c r="AA25" s="395"/>
+      <c r="AB25" s="347">
+        <f t="shared" si="1"/>
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="N25" s="269" t="s">
-        <v>253</v>
-      </c>
-      <c r="O25" s="287" t="s">
-        <v>203</v>
-      </c>
-      <c r="P25" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q25" s="272"/>
-      <c r="R25" s="272"/>
-      <c r="S25" s="272" t="s">
-        <v>345</v>
-      </c>
-      <c r="T25" s="273"/>
-      <c r="X25" s="398" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y25" s="372"/>
-      <c r="Z25" s="372"/>
-      <c r="AA25" s="399"/>
-      <c r="AB25" s="273">
-        <f>T25</f>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -5950,31 +5968,30 @@
       <c r="I26" s="284"/>
       <c r="J26" s="284"/>
       <c r="K26" s="284"/>
-      <c r="N26" s="258" t="s">
-        <v>255</v>
-      </c>
-      <c r="O26" s="259" t="s">
-        <v>228</v>
-      </c>
-      <c r="P26" s="260"/>
-      <c r="Q26" s="245" t="s">
-        <v>346</v>
-      </c>
-      <c r="S26" s="245" t="s">
-        <v>347</v>
-      </c>
-      <c r="T26" s="340">
-        <f>K16</f>
-        <v>11550</v>
-      </c>
-      <c r="X26" s="400"/>
-      <c r="Y26" s="377" t="s">
-        <v>347</v>
-      </c>
+      <c r="N26" s="269" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" s="287" t="s">
+        <v>203</v>
+      </c>
+      <c r="P26" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="272"/>
+      <c r="R26" s="272"/>
+      <c r="S26" s="272" t="s">
+        <v>345</v>
+      </c>
+      <c r="T26" s="273"/>
+      <c r="X26" s="396" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y26" s="372"/>
+      <c r="Z26" s="372"/>
       <c r="AA26" s="397"/>
-      <c r="AB26" s="340">
-        <f>T26</f>
-        <v>11550</v>
+      <c r="AB26" s="273">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -5984,30 +6001,30 @@
       <c r="K27" s="284"/>
       <c r="L27" s="284"/>
       <c r="N27" s="258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O27" s="259" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="P27" s="260"/>
       <c r="Q27" s="245" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
       <c r="S27" s="245" t="s">
-        <v>348</v>
-      </c>
-      <c r="T27" s="329">
-        <f>T21</f>
-        <v>-2200.0000000000005</v>
-      </c>
-      <c r="X27" s="400"/>
+        <v>347</v>
+      </c>
+      <c r="T27" s="340">
+        <f>K16</f>
+        <v>11550</v>
+      </c>
+      <c r="X27" s="398"/>
       <c r="Y27" s="377" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA27" s="397"/>
-      <c r="AB27" s="329">
-        <f>T27</f>
-        <v>-2200.0000000000005</v>
+        <v>347</v>
+      </c>
+      <c r="AA27" s="395"/>
+      <c r="AB27" s="340">
+        <f t="shared" si="1"/>
+        <v>11550</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -6019,277 +6036,272 @@
       <c r="J28" s="342"/>
       <c r="K28" s="284"/>
       <c r="M28" s="284"/>
-      <c r="N28" s="263" t="s">
+      <c r="N28" s="258" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="259" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" s="260"/>
+      <c r="Q28" s="245" t="s">
+        <v>257</v>
+      </c>
+      <c r="S28" s="245" t="s">
+        <v>348</v>
+      </c>
+      <c r="T28" s="329">
+        <f>T22</f>
+        <v>-2200.0000000000005</v>
+      </c>
+      <c r="X28" s="398"/>
+      <c r="Y28" s="377" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA28" s="395"/>
+      <c r="AB28" s="329">
+        <f t="shared" si="1"/>
+        <v>-2200.0000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="L29" s="284"/>
+      <c r="N29" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="O28" s="336" t="s">
+      <c r="O29" s="336" t="s">
         <v>259</v>
       </c>
-      <c r="P28" s="265"/>
-      <c r="Q28" s="266" t="s">
+      <c r="P29" s="265"/>
+      <c r="Q29" s="266" t="s">
         <v>260</v>
       </c>
-      <c r="R28" s="266"/>
-      <c r="S28" s="266" t="s">
+      <c r="R29" s="266"/>
+      <c r="S29" s="266" t="s">
         <v>349</v>
       </c>
-      <c r="T28" s="341">
+      <c r="T29" s="341">
         <f>J17</f>
         <v>1050</v>
       </c>
-      <c r="X28" s="400"/>
-      <c r="Y28" s="377" t="s">
+      <c r="X29" s="398"/>
+      <c r="Y29" s="377" t="s">
         <v>349</v>
       </c>
-      <c r="AA28" s="397"/>
-      <c r="AB28" s="341">
-        <f>T28</f>
+      <c r="AA29" s="395"/>
+      <c r="AB29" s="341">
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="L29" s="284"/>
-      <c r="N29" s="269" t="s">
+    <row r="30" spans="1:28">
+      <c r="N30" s="269" t="s">
         <v>261</v>
       </c>
-      <c r="O29" s="287" t="s">
+      <c r="O30" s="287" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="271" t="s">
+      <c r="P30" s="271" t="s">
         <v>262</v>
       </c>
-      <c r="Q29" s="272"/>
-      <c r="R29" s="272"/>
-      <c r="S29" s="272" t="s">
+      <c r="Q30" s="272"/>
+      <c r="R30" s="272"/>
+      <c r="S30" s="272" t="s">
         <v>350</v>
       </c>
-      <c r="T29" s="343"/>
-      <c r="U29" s="344"/>
-      <c r="X29" s="398" t="s">
+      <c r="T30" s="343"/>
+      <c r="U30" s="344"/>
+      <c r="X30" s="396" t="s">
         <v>350</v>
       </c>
-      <c r="Y29" s="372"/>
-      <c r="Z29" s="372"/>
-      <c r="AA29" s="399"/>
-      <c r="AB29" s="273">
-        <f>T30</f>
+      <c r="Y30" s="372"/>
+      <c r="Z30" s="372"/>
+      <c r="AA30" s="397"/>
+      <c r="AB30" s="273">
+        <f>T31</f>
         <v>1250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="N30" s="258" t="s">
-        <v>263</v>
-      </c>
-      <c r="O30" s="259" t="s">
-        <v>264</v>
-      </c>
-      <c r="P30" s="260"/>
-      <c r="Q30" s="245" t="s">
-        <v>265</v>
-      </c>
-      <c r="S30" s="245" t="s">
-        <v>351</v>
-      </c>
-      <c r="T30" s="345">
-        <f>J11</f>
-        <v>1250</v>
-      </c>
-      <c r="U30" s="346"/>
-      <c r="X30" s="400"/>
-      <c r="Y30" s="377" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA30" s="397"/>
-      <c r="AB30" s="345">
-        <f t="shared" ref="AB30:AB33" si="1">T31</f>
-        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="M31" s="284"/>
       <c r="N31" s="258" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O31" s="259" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="P31" s="260"/>
       <c r="Q31" s="245" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S31" s="245" t="s">
-        <v>352</v>
-      </c>
-      <c r="T31" s="347">
+        <v>351</v>
+      </c>
+      <c r="T31" s="345">
+        <f>J11</f>
+        <v>1250</v>
+      </c>
+      <c r="U31" s="346"/>
+      <c r="X31" s="398"/>
+      <c r="Y31" s="377" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA31" s="395"/>
+      <c r="AB31" s="345">
+        <f t="shared" ref="AB31:AB34" si="2">T32</f>
         <v>0.1</v>
-      </c>
-      <c r="U31" s="348">
-        <v>0.08</v>
-      </c>
-      <c r="X31" s="400"/>
-      <c r="Y31" s="377" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA31" s="397"/>
-      <c r="AB31" s="347" t="str">
-        <f t="shared" si="1"/>
-        <v>標準税率</v>
       </c>
     </row>
     <row r="32" spans="1:28">
       <c r="N32" s="258" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O32" s="259" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="P32" s="260"/>
       <c r="Q32" s="245" t="s">
+        <v>267</v>
+      </c>
+      <c r="S32" s="245" t="s">
+        <v>352</v>
+      </c>
+      <c r="T32" s="347">
+        <v>0.1</v>
+      </c>
+      <c r="U32" s="348">
+        <v>0.08</v>
+      </c>
+      <c r="X32" s="398"/>
+      <c r="Y32" s="377" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA32" s="395"/>
+      <c r="AB32" s="347" t="str">
+        <f t="shared" si="2"/>
+        <v>標準税率</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="N33" s="258" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" s="259" t="s">
+        <v>269</v>
+      </c>
+      <c r="P33" s="260"/>
+      <c r="Q33" s="245" t="s">
         <v>250</v>
       </c>
-      <c r="S32" s="245" t="s">
+      <c r="S33" s="245" t="s">
         <v>353</v>
       </c>
-      <c r="T32" s="331" t="s">
+      <c r="T33" s="331" t="s">
         <v>251</v>
       </c>
-      <c r="U32" s="349" t="s">
+      <c r="U33" s="349" t="s">
         <v>270</v>
       </c>
-      <c r="X32" s="400"/>
-      <c r="Y32" s="377" t="s">
+      <c r="X33" s="398"/>
+      <c r="Y33" s="377" t="s">
         <v>353</v>
       </c>
-      <c r="AA32" s="397"/>
-      <c r="AB32" s="331">
-        <f t="shared" si="1"/>
+      <c r="AA33" s="395"/>
+      <c r="AB33" s="331">
+        <f t="shared" si="2"/>
         <v>13750</v>
       </c>
     </row>
-    <row r="33" spans="2:28">
-      <c r="N33" s="263" t="s">
+    <row r="34" spans="2:28">
+      <c r="N34" s="263" t="s">
         <v>271</v>
       </c>
-      <c r="O33" s="336" t="s">
+      <c r="O34" s="336" t="s">
         <v>272</v>
       </c>
-      <c r="P33" s="265"/>
-      <c r="Q33" s="266" t="s">
+      <c r="P34" s="265"/>
+      <c r="Q34" s="266" t="s">
         <v>273</v>
       </c>
-      <c r="R33" s="266"/>
-      <c r="S33" s="266" t="s">
+      <c r="R34" s="266"/>
+      <c r="S34" s="266" t="s">
         <v>354</v>
       </c>
-      <c r="T33" s="350">
+      <c r="T34" s="350">
         <f>K10</f>
         <v>13750</v>
       </c>
-      <c r="U33" s="351"/>
-      <c r="X33" s="400"/>
-      <c r="Y33" s="377" t="s">
+      <c r="U34" s="351"/>
+      <c r="X34" s="398"/>
+      <c r="Y34" s="377" t="s">
         <v>354</v>
       </c>
-      <c r="AA33" s="397"/>
-      <c r="AB33" s="403">
-        <f t="shared" si="1"/>
+      <c r="AA34" s="395"/>
+      <c r="AB34" s="401">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28">
-      <c r="N34" s="269" t="s">
-        <v>274</v>
-      </c>
-      <c r="O34" s="287" t="s">
-        <v>203</v>
-      </c>
-      <c r="P34" s="271" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q34" s="272"/>
-      <c r="R34" s="272"/>
-      <c r="S34" s="272" t="s">
-        <v>355</v>
-      </c>
-      <c r="T34" s="343"/>
-      <c r="U34" s="352"/>
-      <c r="V34" s="344"/>
-      <c r="X34" s="398" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y34" s="372"/>
-      <c r="Z34" s="372"/>
-      <c r="AA34" s="399"/>
-      <c r="AB34" s="392"/>
     </row>
     <row r="35" spans="2:28">
       <c r="M35" s="284"/>
-      <c r="N35" s="258" t="s">
-        <v>276</v>
-      </c>
-      <c r="O35" s="259" t="s">
-        <v>191</v>
-      </c>
-      <c r="P35" s="260"/>
-      <c r="Q35" s="245" t="s">
-        <v>277</v>
-      </c>
-      <c r="S35" s="245" t="s">
-        <v>356</v>
-      </c>
-      <c r="T35" s="353">
-        <f>B8</f>
-        <v>1</v>
-      </c>
-      <c r="U35" s="246">
-        <v>2</v>
-      </c>
-      <c r="V35" s="354">
-        <v>3</v>
-      </c>
-      <c r="X35" s="400"/>
-      <c r="Y35" s="377" t="s">
-        <v>356</v>
-      </c>
+      <c r="N35" s="269" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" s="287" t="s">
+        <v>203</v>
+      </c>
+      <c r="P35" s="271" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q35" s="272"/>
+      <c r="R35" s="272"/>
+      <c r="S35" s="272" t="s">
+        <v>355</v>
+      </c>
+      <c r="T35" s="343"/>
+      <c r="U35" s="352"/>
+      <c r="V35" s="344"/>
+      <c r="X35" s="396" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y35" s="372"/>
+      <c r="Z35" s="372"/>
       <c r="AA35" s="397"/>
-      <c r="AB35" s="404">
-        <f>T35</f>
-        <v>1</v>
-      </c>
+      <c r="AB35" s="390"/>
     </row>
     <row r="36" spans="2:28" ht="24">
       <c r="G36" s="356"/>
       <c r="J36" s="248"/>
       <c r="N36" s="258" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O36" s="259" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="P36" s="260"/>
       <c r="Q36" s="245" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S36" s="245" t="s">
-        <v>360</v>
-      </c>
-      <c r="T36" s="355" t="s">
-        <v>281</v>
-      </c>
-      <c r="U36" s="319" t="s">
-        <v>282</v>
-      </c>
-      <c r="V36" s="354" t="s">
-        <v>282</v>
-      </c>
-      <c r="X36" s="400"/>
+        <v>356</v>
+      </c>
+      <c r="T36" s="353">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="246">
+        <v>2</v>
+      </c>
+      <c r="V36" s="354">
+        <v>3</v>
+      </c>
+      <c r="X36" s="398"/>
       <c r="Y36" s="377" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA36" s="397"/>
-      <c r="AB36" s="404" t="str">
-        <f t="shared" ref="AB36:AB45" si="2">T36</f>
-        <v>2020-12-12</v>
+        <v>356</v>
+      </c>
+      <c r="AA36" s="395"/>
+      <c r="AB36" s="402">
+        <f>T36</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:28">
@@ -6297,66 +6309,68 @@
       <c r="K37" s="249"/>
       <c r="L37" s="249"/>
       <c r="N37" s="258" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O37" s="259" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P37" s="260"/>
       <c r="Q37" s="245" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
       <c r="S37" s="245" t="s">
-        <v>358</v>
-      </c>
-      <c r="T37" s="304">
-        <f>G8</f>
-        <v>10</v>
-      </c>
-      <c r="U37" s="245">
-        <v>1</v>
-      </c>
-      <c r="V37" s="357"/>
-      <c r="X37" s="400"/>
+        <v>360</v>
+      </c>
+      <c r="T37" s="355" t="s">
+        <v>281</v>
+      </c>
+      <c r="U37" s="319" t="s">
+        <v>282</v>
+      </c>
+      <c r="V37" s="354" t="s">
+        <v>282</v>
+      </c>
+      <c r="X37" s="398"/>
       <c r="Y37" s="377" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA37" s="397"/>
-      <c r="AB37" s="404">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>360</v>
+      </c>
+      <c r="AA37" s="395"/>
+      <c r="AB37" s="402" t="str">
+        <f t="shared" ref="AB37:AB46" si="3">T37</f>
+        <v>2020-12-12</v>
       </c>
     </row>
     <row r="38" spans="2:28">
       <c r="J38" s="248"/>
       <c r="N38" s="258" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O38" s="259" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P38" s="260"/>
       <c r="Q38" s="245" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="S38" s="245" t="s">
-        <v>359</v>
-      </c>
-      <c r="T38" s="304" t="s">
-        <v>288</v>
-      </c>
-      <c r="U38" s="245" t="s">
-        <v>289</v>
+        <v>358</v>
+      </c>
+      <c r="T38" s="304">
+        <f>G8</f>
+        <v>10</v>
+      </c>
+      <c r="U38" s="245">
+        <v>1</v>
       </c>
       <c r="V38" s="357"/>
-      <c r="X38" s="400"/>
+      <c r="X38" s="398"/>
       <c r="Y38" s="377" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA38" s="397"/>
-      <c r="AB38" s="404" t="str">
-        <f t="shared" si="2"/>
-        <v>DZN</v>
+        <v>358</v>
+      </c>
+      <c r="AA38" s="395"/>
+      <c r="AB38" s="402">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:28">
@@ -6364,101 +6378,99 @@
       <c r="E39" s="262"/>
       <c r="J39" s="248"/>
       <c r="N39" s="258" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O39" s="259" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P39" s="260"/>
       <c r="Q39" s="245" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="S39" s="245" t="s">
-        <v>364</v>
-      </c>
-      <c r="T39" s="358">
-        <f>K8</f>
-        <v>13200</v>
-      </c>
-      <c r="U39" s="284">
-        <f>K9</f>
-        <v>550</v>
+        <v>359</v>
+      </c>
+      <c r="T39" s="304" t="s">
+        <v>288</v>
+      </c>
+      <c r="U39" s="245" t="s">
+        <v>289</v>
       </c>
       <c r="V39" s="357"/>
-      <c r="X39" s="400"/>
+      <c r="X39" s="398"/>
       <c r="Y39" s="377" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA39" s="397"/>
-      <c r="AB39" s="404">
-        <f t="shared" si="2"/>
-        <v>13200</v>
+        <v>359</v>
+      </c>
+      <c r="AA39" s="395"/>
+      <c r="AB39" s="402" t="str">
+        <f t="shared" si="3"/>
+        <v>DZN</v>
       </c>
     </row>
     <row r="40" spans="2:28">
       <c r="J40" s="248"/>
       <c r="K40" s="248"/>
       <c r="L40" s="248"/>
-      <c r="N40" s="359" t="s">
-        <v>293</v>
-      </c>
-      <c r="O40" s="360" t="s">
-        <v>203</v>
-      </c>
-      <c r="P40" s="361"/>
-      <c r="Q40" s="352" t="s">
-        <v>294</v>
-      </c>
-      <c r="R40" s="352"/>
-      <c r="S40" s="352" t="s">
-        <v>365</v>
-      </c>
-      <c r="T40" s="362"/>
-      <c r="U40" s="352"/>
-      <c r="V40" s="362"/>
-      <c r="X40" s="400"/>
-      <c r="Y40" s="372" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z40" s="372"/>
-      <c r="AA40" s="399"/>
-      <c r="AB40" s="405"/>
+      <c r="N40" s="258" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" s="259" t="s">
+        <v>291</v>
+      </c>
+      <c r="P40" s="260"/>
+      <c r="Q40" s="245" t="s">
+        <v>292</v>
+      </c>
+      <c r="S40" s="245" t="s">
+        <v>364</v>
+      </c>
+      <c r="T40" s="358">
+        <f>K8</f>
+        <v>13200</v>
+      </c>
+      <c r="U40" s="284">
+        <f>K9</f>
+        <v>550</v>
+      </c>
+      <c r="V40" s="357"/>
+      <c r="X40" s="398"/>
+      <c r="Y40" s="377" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA40" s="395"/>
+      <c r="AB40" s="402">
+        <f t="shared" si="3"/>
+        <v>13200</v>
+      </c>
     </row>
     <row r="41" spans="2:28">
       <c r="J41" s="248"/>
       <c r="K41" s="363"/>
       <c r="L41" s="248"/>
-      <c r="N41" s="258" t="s">
-        <v>295</v>
-      </c>
-      <c r="O41" s="259" t="s">
-        <v>296</v>
-      </c>
-      <c r="P41" s="260"/>
-      <c r="R41" s="245" t="s">
-        <v>250</v>
-      </c>
-      <c r="S41" s="245" t="s">
-        <v>366</v>
-      </c>
-      <c r="T41" s="354" t="s">
-        <v>251</v>
-      </c>
-      <c r="U41" s="246" t="s">
-        <v>251</v>
-      </c>
-      <c r="V41" s="354" t="s">
-        <v>251</v>
-      </c>
-      <c r="X41" s="400"/>
-      <c r="Z41" s="377" t="s">
-        <v>366</v>
-      </c>
+      <c r="N41" s="359" t="s">
+        <v>293</v>
+      </c>
+      <c r="O41" s="360" t="s">
+        <v>203</v>
+      </c>
+      <c r="P41" s="361"/>
+      <c r="Q41" s="352" t="s">
+        <v>294</v>
+      </c>
+      <c r="R41" s="352"/>
+      <c r="S41" s="352" t="s">
+        <v>365</v>
+      </c>
+      <c r="T41" s="362"/>
+      <c r="U41" s="352"/>
+      <c r="V41" s="362"/>
+      <c r="X41" s="398"/>
+      <c r="Y41" s="372" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z41" s="372"/>
       <c r="AA41" s="397"/>
-      <c r="AB41" s="404" t="str">
-        <f t="shared" si="2"/>
-        <v>標準税率</v>
-      </c>
+      <c r="AB41" s="403"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="365"/>
@@ -6472,37 +6484,36 @@
       <c r="J42" s="246"/>
       <c r="K42" s="246"/>
       <c r="L42" s="246"/>
-      <c r="N42" s="293" t="s">
-        <v>94</v>
-      </c>
-      <c r="O42" s="294" t="s">
-        <v>203</v>
-      </c>
-      <c r="P42" s="295"/>
-      <c r="Q42" s="296"/>
-      <c r="R42" s="296" t="s">
-        <v>267</v>
-      </c>
-      <c r="S42" s="296" t="s">
-        <v>367</v>
-      </c>
-      <c r="T42" s="339">
-        <v>0.1</v>
-      </c>
-      <c r="U42" s="364">
-        <v>0.1</v>
-      </c>
-      <c r="V42" s="339">
-        <v>0.1</v>
-      </c>
-      <c r="X42" s="400"/>
+      <c r="N42" s="258" t="s">
+        <v>295</v>
+      </c>
+      <c r="O42" s="259" t="s">
+        <v>296</v>
+      </c>
+      <c r="P42" s="260"/>
+      <c r="R42" s="245" t="s">
+        <v>250</v>
+      </c>
+      <c r="S42" s="245" t="s">
+        <v>366</v>
+      </c>
+      <c r="T42" s="354" t="s">
+        <v>251</v>
+      </c>
+      <c r="U42" s="246" t="s">
+        <v>251</v>
+      </c>
+      <c r="V42" s="354" t="s">
+        <v>251</v>
+      </c>
+      <c r="X42" s="398"/>
       <c r="Z42" s="377" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA42" s="397"/>
-      <c r="AB42" s="347">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>366</v>
+      </c>
+      <c r="AA42" s="395"/>
+      <c r="AB42" s="402" t="str">
+        <f t="shared" si="3"/>
+        <v>標準税率</v>
       </c>
     </row>
     <row r="43" spans="2:28">
@@ -6516,30 +6527,38 @@
       <c r="J43" s="284"/>
       <c r="K43" s="284"/>
       <c r="L43" s="284"/>
-      <c r="N43" s="269" t="s">
-        <v>368</v>
-      </c>
-      <c r="O43" s="287" t="s">
+      <c r="N43" s="293" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="294" t="s">
         <v>203</v>
       </c>
-      <c r="P43" s="271"/>
-      <c r="Q43" s="272" t="s">
-        <v>298</v>
-      </c>
-      <c r="R43" s="272"/>
-      <c r="S43" s="272" t="s">
-        <v>369</v>
-      </c>
-      <c r="T43" s="273"/>
-      <c r="U43" s="272"/>
-      <c r="V43" s="357"/>
-      <c r="X43" s="400"/>
-      <c r="Y43" s="372" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z43" s="372"/>
-      <c r="AA43" s="399"/>
-      <c r="AB43" s="405"/>
+      <c r="P43" s="295"/>
+      <c r="Q43" s="296"/>
+      <c r="R43" s="296" t="s">
+        <v>267</v>
+      </c>
+      <c r="S43" s="296" t="s">
+        <v>367</v>
+      </c>
+      <c r="T43" s="339">
+        <v>0.1</v>
+      </c>
+      <c r="U43" s="364">
+        <v>0.1</v>
+      </c>
+      <c r="V43" s="339">
+        <v>0.1</v>
+      </c>
+      <c r="X43" s="398"/>
+      <c r="Z43" s="377" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA43" s="395"/>
+      <c r="AB43" s="347">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44" spans="2:28">
       <c r="F44" s="248"/>
@@ -6548,67 +6567,62 @@
       <c r="J44" s="284"/>
       <c r="K44" s="284"/>
       <c r="L44" s="284"/>
-      <c r="N44" s="258" t="s">
+      <c r="N44" s="269" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" s="287" t="s">
+        <v>203</v>
+      </c>
+      <c r="P44" s="271"/>
+      <c r="Q44" s="272" t="s">
+        <v>298</v>
+      </c>
+      <c r="R44" s="272"/>
+      <c r="S44" s="272" t="s">
+        <v>369</v>
+      </c>
+      <c r="T44" s="273"/>
+      <c r="U44" s="272"/>
+      <c r="V44" s="357"/>
+      <c r="X44" s="398"/>
+      <c r="Y44" s="372" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z44" s="372"/>
+      <c r="AA44" s="397"/>
+      <c r="AB44" s="403"/>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="N45" s="258" t="s">
         <v>374</v>
       </c>
-      <c r="O44" s="259" t="s">
+      <c r="O45" s="259" t="s">
         <v>301</v>
       </c>
-      <c r="P44" s="260"/>
-      <c r="R44" s="245" t="s">
+      <c r="P45" s="260"/>
+      <c r="R45" s="245" t="s">
         <v>302</v>
       </c>
-      <c r="S44" s="245" t="s">
+      <c r="S45" s="245" t="s">
         <v>373</v>
       </c>
-      <c r="T44" s="358">
+      <c r="T45" s="358">
         <f>F8</f>
         <v>1320</v>
       </c>
-      <c r="U44" s="284">
+      <c r="U45" s="284">
         <f>F9</f>
         <v>550</v>
       </c>
-      <c r="V44" s="357"/>
-      <c r="X44" s="400"/>
-      <c r="Z44" s="377" t="s">
+      <c r="V45" s="357"/>
+      <c r="X45" s="398"/>
+      <c r="Z45" s="377" t="s">
         <v>373</v>
       </c>
-      <c r="AA44" s="397"/>
-      <c r="AB44" s="358">
-        <f t="shared" si="2"/>
+      <c r="AA45" s="395"/>
+      <c r="AB45" s="358">
+        <f t="shared" si="3"/>
         <v>1320</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28">
-      <c r="N45" s="258" t="s">
-        <v>303</v>
-      </c>
-      <c r="O45" s="328" t="s">
-        <v>304</v>
-      </c>
-      <c r="P45" s="260"/>
-      <c r="R45" s="245" t="s">
-        <v>305</v>
-      </c>
-      <c r="S45" s="245" t="s">
-        <v>375</v>
-      </c>
-      <c r="T45" s="354" t="s">
-        <v>288</v>
-      </c>
-      <c r="U45" s="246" t="s">
-        <v>289</v>
-      </c>
-      <c r="V45" s="357"/>
-      <c r="X45" s="400"/>
-      <c r="Z45" s="377" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA45" s="397"/>
-      <c r="AB45" s="404" t="str">
-        <f t="shared" si="2"/>
-        <v>DZN</v>
       </c>
     </row>
     <row r="46" spans="2:28">
@@ -6621,93 +6635,97 @@
       <c r="J46" s="246"/>
       <c r="K46" s="284"/>
       <c r="L46" s="284"/>
-      <c r="N46" s="359" t="s">
-        <v>306</v>
-      </c>
-      <c r="O46" s="360"/>
-      <c r="P46" s="361"/>
-      <c r="Q46" s="352" t="s">
-        <v>98</v>
-      </c>
-      <c r="R46" s="352"/>
-      <c r="S46" s="352" t="s">
-        <v>376</v>
-      </c>
-      <c r="T46" s="366"/>
-      <c r="U46" s="367"/>
-      <c r="V46" s="362"/>
-      <c r="X46" s="400"/>
-      <c r="Y46" s="372" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z46" s="372"/>
-      <c r="AA46" s="399"/>
-      <c r="AB46" s="405"/>
+      <c r="N46" s="258" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" s="328" t="s">
+        <v>304</v>
+      </c>
+      <c r="P46" s="260"/>
+      <c r="R46" s="245" t="s">
+        <v>305</v>
+      </c>
+      <c r="S46" s="245" t="s">
+        <v>375</v>
+      </c>
+      <c r="T46" s="354" t="s">
+        <v>288</v>
+      </c>
+      <c r="U46" s="246" t="s">
+        <v>289</v>
+      </c>
+      <c r="V46" s="357"/>
+      <c r="X46" s="398"/>
+      <c r="Z46" s="377" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA46" s="395"/>
+      <c r="AB46" s="402" t="str">
+        <f t="shared" si="3"/>
+        <v>DZN</v>
+      </c>
     </row>
     <row r="47" spans="2:28">
       <c r="F47" s="248"/>
       <c r="H47" s="248"/>
       <c r="K47" s="284"/>
       <c r="L47" s="284"/>
-      <c r="N47" s="258" t="s">
-        <v>307</v>
-      </c>
-      <c r="O47" s="259" t="s">
-        <v>212</v>
-      </c>
-      <c r="P47" s="260"/>
-      <c r="R47" s="245" t="s">
-        <v>308</v>
-      </c>
-      <c r="S47" s="245" t="s">
-        <v>377</v>
-      </c>
-      <c r="T47" s="357"/>
-      <c r="U47" s="369"/>
-      <c r="V47" s="358">
-        <f>K14</f>
-        <v>-2200.0000000000005</v>
-      </c>
-      <c r="X47" s="400"/>
-      <c r="Z47" s="377" t="s">
-        <v>372</v>
-      </c>
+      <c r="N47" s="359" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" s="360"/>
+      <c r="P47" s="361"/>
+      <c r="Q47" s="352" t="s">
+        <v>98</v>
+      </c>
+      <c r="R47" s="352"/>
+      <c r="S47" s="352" t="s">
+        <v>376</v>
+      </c>
+      <c r="T47" s="366"/>
+      <c r="U47" s="367"/>
+      <c r="V47" s="362"/>
+      <c r="X47" s="398"/>
+      <c r="Y47" s="372" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z47" s="372"/>
       <c r="AA47" s="397"/>
-      <c r="AB47" s="404" t="str">
-        <f>T50</f>
-        <v>鉛筆（１ダース入り）</v>
-      </c>
+      <c r="AB47" s="403"/>
     </row>
     <row r="48" spans="2:28">
       <c r="F48" s="248"/>
       <c r="H48" s="248"/>
       <c r="K48" s="284"/>
       <c r="L48" s="284"/>
-      <c r="N48" s="293" t="s">
-        <v>309</v>
-      </c>
-      <c r="O48" s="294"/>
-      <c r="P48" s="295"/>
-      <c r="Q48" s="296"/>
-      <c r="R48" s="296" t="s">
-        <v>310</v>
-      </c>
-      <c r="S48" s="296" t="s">
-        <v>378</v>
-      </c>
-      <c r="T48" s="370"/>
-      <c r="U48" s="371"/>
-      <c r="V48" s="297" t="str">
-        <f>B12</f>
-        <v>値引き</v>
-      </c>
-      <c r="X48" s="398" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y48" s="372"/>
-      <c r="Z48" s="372"/>
-      <c r="AA48" s="399"/>
-      <c r="AB48" s="392"/>
+      <c r="N48" s="258" t="s">
+        <v>307</v>
+      </c>
+      <c r="O48" s="259" t="s">
+        <v>212</v>
+      </c>
+      <c r="P48" s="260"/>
+      <c r="R48" s="245" t="s">
+        <v>308</v>
+      </c>
+      <c r="S48" s="245" t="s">
+        <v>377</v>
+      </c>
+      <c r="T48" s="357"/>
+      <c r="U48" s="369"/>
+      <c r="V48" s="358">
+        <f>K14</f>
+        <v>-2200.0000000000005</v>
+      </c>
+      <c r="X48" s="398"/>
+      <c r="Z48" s="377" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA48" s="395"/>
+      <c r="AB48" s="402" t="str">
+        <f>T51</f>
+        <v>鉛筆（１ダース入り）</v>
+      </c>
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="368"/>
@@ -6719,30 +6737,31 @@
       <c r="J49" s="246"/>
       <c r="K49" s="284"/>
       <c r="L49" s="284"/>
-      <c r="N49" s="269" t="s">
-        <v>297</v>
-      </c>
-      <c r="O49" s="287"/>
-      <c r="P49" s="271"/>
-      <c r="Q49" s="272" t="s">
-        <v>370</v>
-      </c>
-      <c r="R49" s="372"/>
-      <c r="S49" s="272" t="s">
-        <v>371</v>
-      </c>
-      <c r="T49" s="373"/>
-      <c r="U49" s="374"/>
-      <c r="V49" s="357"/>
-      <c r="X49" s="400"/>
-      <c r="Y49" s="377" t="s">
-        <v>356</v>
-      </c>
+      <c r="N49" s="293" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" s="294"/>
+      <c r="P49" s="295"/>
+      <c r="Q49" s="296"/>
+      <c r="R49" s="296" t="s">
+        <v>310</v>
+      </c>
+      <c r="S49" s="296" t="s">
+        <v>378</v>
+      </c>
+      <c r="T49" s="370"/>
+      <c r="U49" s="371"/>
+      <c r="V49" s="297" t="str">
+        <f>B12</f>
+        <v>値引き</v>
+      </c>
+      <c r="X49" s="396" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y49" s="372"/>
+      <c r="Z49" s="372"/>
       <c r="AA49" s="397"/>
-      <c r="AB49" s="304">
-        <f>U35</f>
-        <v>2</v>
-      </c>
+      <c r="AB49" s="390"/>
     </row>
     <row r="50" spans="2:28">
       <c r="F50" s="248"/>
@@ -6750,37 +6769,29 @@
       <c r="I50" s="284"/>
       <c r="J50" s="284"/>
       <c r="K50" s="284"/>
-      <c r="N50" s="293" t="s">
-        <v>89</v>
-      </c>
-      <c r="O50" s="294" t="s">
-        <v>299</v>
-      </c>
-      <c r="P50" s="295"/>
-      <c r="Q50" s="296"/>
-      <c r="R50" s="296" t="s">
-        <v>300</v>
-      </c>
-      <c r="S50" s="296" t="s">
-        <v>372</v>
-      </c>
-      <c r="T50" s="297" t="str">
-        <f>D8</f>
-        <v>鉛筆（１ダース入り）</v>
-      </c>
-      <c r="U50" s="375" t="str">
-        <f>D9</f>
-        <v>送料</v>
-      </c>
-      <c r="V50" s="376"/>
-      <c r="X50" s="400"/>
+      <c r="N50" s="269" t="s">
+        <v>297</v>
+      </c>
+      <c r="O50" s="287"/>
+      <c r="P50" s="271"/>
+      <c r="Q50" s="272" t="s">
+        <v>370</v>
+      </c>
+      <c r="R50" s="372"/>
+      <c r="S50" s="272" t="s">
+        <v>371</v>
+      </c>
+      <c r="T50" s="373"/>
+      <c r="U50" s="374"/>
+      <c r="V50" s="357"/>
+      <c r="X50" s="398"/>
       <c r="Y50" s="377" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA50" s="397"/>
-      <c r="AB50" s="304" t="str">
-        <f>U36</f>
-        <v>2020-12-12</v>
+        <v>356</v>
+      </c>
+      <c r="AA50" s="395"/>
+      <c r="AB50" s="304">
+        <f t="shared" ref="AB50:AB60" si="4">U36</f>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:28">
@@ -6788,18 +6799,37 @@
       <c r="E51" s="319"/>
       <c r="L51" s="377"/>
       <c r="M51" s="377"/>
-      <c r="N51" s="377" t="s">
-        <v>395</v>
-      </c>
-      <c r="O51" s="246"/>
-      <c r="X51" s="400"/>
+      <c r="N51" s="293" t="s">
+        <v>89</v>
+      </c>
+      <c r="O51" s="294" t="s">
+        <v>299</v>
+      </c>
+      <c r="P51" s="295"/>
+      <c r="Q51" s="296"/>
+      <c r="R51" s="296" t="s">
+        <v>300</v>
+      </c>
+      <c r="S51" s="296" t="s">
+        <v>372</v>
+      </c>
+      <c r="T51" s="297" t="str">
+        <f>D8</f>
+        <v>鉛筆（１ダース入り）</v>
+      </c>
+      <c r="U51" s="375" t="str">
+        <f>D9</f>
+        <v>送料</v>
+      </c>
+      <c r="V51" s="376"/>
+      <c r="X51" s="398"/>
       <c r="Y51" s="377" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA51" s="397"/>
-      <c r="AB51" s="304">
-        <f>U37</f>
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="AA51" s="395"/>
+      <c r="AB51" s="304" t="str">
+        <f t="shared" si="4"/>
+        <v>2020-12-12</v>
       </c>
     </row>
     <row r="52" spans="2:28">
@@ -6807,26 +6837,18 @@
       <c r="K52" s="377"/>
       <c r="L52" s="377"/>
       <c r="M52" s="377"/>
-      <c r="N52" s="378" t="s">
-        <v>379</v>
-      </c>
-      <c r="O52" s="377"/>
-      <c r="P52" s="377" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q52" s="377"/>
-      <c r="R52" s="377"/>
-      <c r="S52" s="379" t="s">
-        <v>383</v>
-      </c>
-      <c r="X52" s="400"/>
+      <c r="N52" s="377" t="s">
+        <v>395</v>
+      </c>
+      <c r="O52" s="246"/>
+      <c r="X52" s="398"/>
       <c r="Y52" s="377" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA52" s="397"/>
-      <c r="AB52" s="304" t="str">
-        <f>U38</f>
-        <v>EA</v>
+        <v>358</v>
+      </c>
+      <c r="AA52" s="395"/>
+      <c r="AB52" s="304">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:28">
@@ -6836,25 +6858,25 @@
       <c r="L53" s="377"/>
       <c r="M53" s="377"/>
       <c r="N53" s="378" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O53" s="377"/>
       <c r="P53" s="377" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q53" s="377"/>
       <c r="R53" s="377"/>
       <c r="S53" s="379" t="s">
-        <v>384</v>
-      </c>
-      <c r="X53" s="400"/>
+        <v>383</v>
+      </c>
+      <c r="X53" s="398"/>
       <c r="Y53" s="377" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA53" s="397"/>
-      <c r="AB53" s="358">
-        <f>U39</f>
-        <v>550</v>
+        <v>359</v>
+      </c>
+      <c r="AA53" s="395"/>
+      <c r="AB53" s="304" t="str">
+        <f t="shared" si="4"/>
+        <v>EA</v>
       </c>
     </row>
     <row r="54" spans="2:28">
@@ -6863,26 +6885,25 @@
       <c r="K54" s="320"/>
       <c r="L54" s="320"/>
       <c r="N54" s="378" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O54" s="377"/>
       <c r="P54" s="377" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="377"/>
       <c r="R54" s="377"/>
-      <c r="S54" s="377" t="s">
-        <v>387</v>
-      </c>
-      <c r="X54" s="400"/>
-      <c r="Y54" s="372" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z54" s="372"/>
-      <c r="AA54" s="399"/>
-      <c r="AB54" s="273">
-        <f>U40</f>
-        <v>0</v>
+      <c r="S54" s="379" t="s">
+        <v>384</v>
+      </c>
+      <c r="X54" s="398"/>
+      <c r="Y54" s="377" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA54" s="395"/>
+      <c r="AB54" s="358">
+        <f t="shared" si="4"/>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="2:28">
@@ -6890,199 +6911,206 @@
       <c r="E55" s="249"/>
       <c r="K55" s="320"/>
       <c r="L55" s="320"/>
-      <c r="N55" s="384" t="s">
-        <v>57</v>
-      </c>
-      <c r="O55" s="378"/>
-      <c r="P55" s="181" t="s">
-        <v>150</v>
+      <c r="N55" s="378" t="s">
+        <v>385</v>
+      </c>
+      <c r="O55" s="377"/>
+      <c r="P55" s="377" t="s">
+        <v>386</v>
       </c>
       <c r="Q55" s="377"/>
       <c r="R55" s="377"/>
       <c r="S55" s="377" t="s">
-        <v>392</v>
-      </c>
-      <c r="X55" s="400"/>
-      <c r="Z55" s="377" t="s">
-        <v>366</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="X55" s="398"/>
+      <c r="Y55" s="372" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z55" s="372"/>
       <c r="AA55" s="397"/>
-      <c r="AB55" s="304" t="str">
-        <f>U41</f>
-        <v>標準税率</v>
+      <c r="AB55" s="273">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:28">
-      <c r="N56" s="384" t="s">
-        <v>131</v>
-      </c>
-      <c r="O56" s="377"/>
-      <c r="P56" s="385" t="s">
-        <v>151</v>
+      <c r="N56" s="383" t="s">
+        <v>57</v>
+      </c>
+      <c r="O56" s="378"/>
+      <c r="P56" s="181" t="s">
+        <v>150</v>
       </c>
       <c r="Q56" s="377"/>
       <c r="R56" s="377"/>
       <c r="S56" s="377" t="s">
-        <v>393</v>
-      </c>
-      <c r="X56" s="400"/>
+        <v>392</v>
+      </c>
+      <c r="X56" s="398"/>
       <c r="Z56" s="377" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA56" s="397"/>
-      <c r="AB56" s="304">
-        <f>U42</f>
-        <v>0.1</v>
+        <v>366</v>
+      </c>
+      <c r="AA56" s="395"/>
+      <c r="AB56" s="304" t="str">
+        <f t="shared" si="4"/>
+        <v>標準税率</v>
       </c>
     </row>
     <row r="57" spans="2:28">
-      <c r="N57" s="384" t="s">
-        <v>62</v>
-      </c>
-      <c r="O57" s="378"/>
-      <c r="P57" s="181" t="s">
-        <v>64</v>
+      <c r="N57" s="383" t="s">
+        <v>131</v>
+      </c>
+      <c r="O57" s="377"/>
+      <c r="P57" s="384" t="s">
+        <v>151</v>
       </c>
       <c r="Q57" s="377"/>
       <c r="R57" s="377"/>
       <c r="S57" s="377" t="s">
-        <v>388</v>
-      </c>
-      <c r="X57" s="400"/>
-      <c r="Y57" s="372" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z57" s="372"/>
-      <c r="AA57" s="399"/>
-      <c r="AB57" s="273">
-        <f>U43</f>
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="X57" s="398"/>
+      <c r="Z57" s="377" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA57" s="395"/>
+      <c r="AB57" s="304">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="58" spans="2:28">
-      <c r="N58" s="130" t="s">
-        <v>320</v>
-      </c>
-      <c r="O58" s="377"/>
-      <c r="P58" s="131" t="s">
-        <v>68</v>
+      <c r="N58" s="383" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="378"/>
+      <c r="P58" s="181" t="s">
+        <v>64</v>
       </c>
       <c r="Q58" s="377"/>
       <c r="R58" s="377"/>
       <c r="S58" s="377" t="s">
-        <v>389</v>
-      </c>
-      <c r="X58" s="400"/>
-      <c r="Z58" s="377" t="s">
-        <v>373</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="X58" s="398"/>
+      <c r="Y58" s="372" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z58" s="372"/>
       <c r="AA58" s="397"/>
-      <c r="AB58" s="304">
-        <f>U44</f>
-        <v>550</v>
+      <c r="AB58" s="273">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:28">
-      <c r="N59" s="384" t="s">
-        <v>322</v>
+      <c r="N59" s="130" t="s">
+        <v>320</v>
       </c>
       <c r="O59" s="377"/>
-      <c r="P59" s="386" t="s">
-        <v>318</v>
+      <c r="P59" s="131" t="s">
+        <v>68</v>
       </c>
       <c r="Q59" s="377"/>
       <c r="R59" s="377"/>
       <c r="S59" s="377" t="s">
-        <v>390</v>
-      </c>
-      <c r="X59" s="400"/>
+        <v>389</v>
+      </c>
+      <c r="X59" s="398"/>
       <c r="Z59" s="377" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA59" s="397"/>
-      <c r="AB59" s="304" t="str">
-        <f>U45</f>
-        <v>EA</v>
+        <v>373</v>
+      </c>
+      <c r="AA59" s="395"/>
+      <c r="AB59" s="304">
+        <f t="shared" si="4"/>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="2:28">
-      <c r="N60" s="384" t="s">
-        <v>321</v>
+      <c r="N60" s="383" t="s">
+        <v>322</v>
       </c>
       <c r="O60" s="377"/>
-      <c r="P60" s="386" t="s">
-        <v>319</v>
+      <c r="P60" s="385" t="s">
+        <v>318</v>
       </c>
       <c r="Q60" s="377"/>
       <c r="R60" s="377"/>
       <c r="S60" s="377" t="s">
-        <v>391</v>
-      </c>
-      <c r="X60" s="400"/>
-      <c r="Y60" s="372" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z60" s="372"/>
-      <c r="AA60" s="399"/>
-      <c r="AB60" s="273"/>
+        <v>390</v>
+      </c>
+      <c r="X60" s="398"/>
+      <c r="Z60" s="377" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA60" s="395"/>
+      <c r="AB60" s="304" t="str">
+        <f t="shared" si="4"/>
+        <v>EA</v>
+      </c>
     </row>
     <row r="61" spans="2:28">
-      <c r="N61" s="384" t="s">
-        <v>154</v>
+      <c r="N61" s="383" t="s">
+        <v>321</v>
       </c>
       <c r="O61" s="377"/>
-      <c r="P61" s="121" t="s">
-        <v>155</v>
+      <c r="P61" s="385" t="s">
+        <v>319</v>
       </c>
       <c r="Q61" s="377"/>
       <c r="R61" s="377"/>
       <c r="S61" s="377" t="s">
+        <v>391</v>
+      </c>
+      <c r="X61" s="398"/>
+      <c r="Y61" s="372" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z61" s="372"/>
+      <c r="AA61" s="397"/>
+      <c r="AB61" s="273"/>
+    </row>
+    <row r="62" spans="2:28">
+      <c r="K62" s="386"/>
+      <c r="L62" s="386"/>
+      <c r="M62" s="386"/>
+      <c r="N62" s="383" t="s">
+        <v>154</v>
+      </c>
+      <c r="O62" s="377"/>
+      <c r="P62" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q62" s="377"/>
+      <c r="R62" s="377"/>
+      <c r="S62" s="377" t="s">
         <v>394</v>
       </c>
-      <c r="X61" s="400"/>
-      <c r="Z61" s="377" t="s">
+      <c r="X62" s="398"/>
+      <c r="Z62" s="377" t="s">
         <v>372</v>
       </c>
-      <c r="AA61" s="397"/>
-      <c r="AB61" s="358" t="str">
-        <f>U50</f>
+      <c r="AA62" s="395"/>
+      <c r="AB62" s="358" t="str">
+        <f>U51</f>
         <v>送料</v>
       </c>
     </row>
-    <row r="62" spans="2:28">
-      <c r="K62" s="388"/>
-      <c r="L62" s="388"/>
-      <c r="M62" s="388"/>
-      <c r="N62" s="389"/>
-      <c r="O62" s="390"/>
-      <c r="P62" s="391"/>
-      <c r="Q62" s="391"/>
-      <c r="R62" s="391"/>
-      <c r="S62" s="377"/>
-      <c r="X62" s="398" t="s">
+    <row r="63" spans="2:28">
+      <c r="N63" s="387"/>
+      <c r="O63" s="388"/>
+      <c r="P63" s="389"/>
+      <c r="Q63" s="389"/>
+      <c r="R63" s="389"/>
+      <c r="S63" s="377"/>
+      <c r="X63" s="396" t="s">
         <v>355</v>
       </c>
-      <c r="Y62" s="372"/>
-      <c r="Z62" s="372"/>
-      <c r="AA62" s="399"/>
-      <c r="AB62" s="392"/>
-    </row>
-    <row r="63" spans="2:28">
-      <c r="N63" s="378"/>
-      <c r="O63" s="378"/>
-      <c r="P63" s="377"/>
-      <c r="Q63" s="377"/>
-      <c r="R63" s="377"/>
-      <c r="S63" s="377"/>
-      <c r="X63" s="400"/>
-      <c r="Y63" s="377" t="s">
-        <v>356</v>
-      </c>
+      <c r="Y63" s="372"/>
+      <c r="Z63" s="372"/>
       <c r="AA63" s="397"/>
-      <c r="AB63" s="304">
-        <f>V35</f>
-        <v>3</v>
-      </c>
+      <c r="AB63" s="390"/>
     </row>
     <row r="64" spans="2:28">
       <c r="N64" s="378"/>
@@ -7091,14 +7119,14 @@
       <c r="Q64" s="377"/>
       <c r="R64" s="377"/>
       <c r="S64" s="377"/>
-      <c r="X64" s="400"/>
+      <c r="X64" s="398"/>
       <c r="Y64" s="377" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA64" s="397"/>
-      <c r="AB64" s="304" t="str">
+        <v>356</v>
+      </c>
+      <c r="AA64" s="395"/>
+      <c r="AB64" s="304">
         <f>V36</f>
-        <v>2020-12-12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="14:28">
@@ -7108,13 +7136,15 @@
       <c r="Q65" s="377"/>
       <c r="R65" s="377"/>
       <c r="S65" s="377"/>
-      <c r="X65" s="400"/>
-      <c r="Y65" s="372" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z65" s="372"/>
-      <c r="AA65" s="399"/>
-      <c r="AB65" s="273"/>
+      <c r="X65" s="398"/>
+      <c r="Y65" s="377" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA65" s="395"/>
+      <c r="AB65" s="304" t="str">
+        <f>V37</f>
+        <v>2020-12-12</v>
+      </c>
     </row>
     <row r="66" spans="14:28">
       <c r="N66" s="378"/>
@@ -7123,47 +7153,47 @@
       <c r="Q66" s="377"/>
       <c r="R66" s="377"/>
       <c r="S66" s="377"/>
-      <c r="X66" s="400"/>
-      <c r="Z66" s="377" t="s">
-        <v>366</v>
-      </c>
+      <c r="X66" s="398"/>
+      <c r="Y66" s="372" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z66" s="372"/>
       <c r="AA66" s="397"/>
-      <c r="AB66" s="304" t="str">
-        <f>V41</f>
-        <v>標準税率</v>
-      </c>
+      <c r="AB66" s="273"/>
     </row>
     <row r="67" spans="14:28">
       <c r="N67" s="378"/>
-      <c r="O67" s="377"/>
+      <c r="O67" s="378"/>
       <c r="P67" s="377"/>
-      <c r="Q67" s="387"/>
-      <c r="R67" s="387"/>
+      <c r="Q67" s="377"/>
+      <c r="R67" s="377"/>
       <c r="S67" s="377"/>
-      <c r="X67" s="400"/>
+      <c r="X67" s="398"/>
       <c r="Z67" s="377" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA67" s="397"/>
-      <c r="AB67" s="347">
+        <v>366</v>
+      </c>
+      <c r="AA67" s="395"/>
+      <c r="AB67" s="304" t="str">
         <f>V42</f>
-        <v>0.1</v>
+        <v>標準税率</v>
       </c>
     </row>
     <row r="68" spans="14:28" ht="18.75" customHeight="1">
       <c r="N68" s="378"/>
-      <c r="O68" s="378"/>
+      <c r="O68" s="377"/>
       <c r="P68" s="377"/>
-      <c r="Q68" s="377"/>
-      <c r="R68" s="377"/>
+      <c r="Q68" s="404"/>
+      <c r="R68" s="404"/>
       <c r="S68" s="377"/>
-      <c r="X68" s="400"/>
-      <c r="Y68" s="372" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z68" s="372"/>
-      <c r="AA68" s="399"/>
-      <c r="AB68" s="273"/>
+      <c r="X68" s="398"/>
+      <c r="Z68" s="377" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA68" s="395"/>
+      <c r="AB68" s="347">
+        <f>V43</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="69" spans="14:28">
       <c r="N69" s="378"/>
@@ -7172,15 +7202,13 @@
       <c r="Q69" s="377"/>
       <c r="R69" s="377"/>
       <c r="S69" s="377"/>
-      <c r="X69" s="400"/>
-      <c r="Z69" s="377" t="s">
-        <v>377</v>
-      </c>
+      <c r="X69" s="398"/>
+      <c r="Y69" s="372" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z69" s="372"/>
       <c r="AA69" s="397"/>
-      <c r="AB69" s="358">
-        <f>V47</f>
-        <v>-2200.0000000000005</v>
-      </c>
+      <c r="AB69" s="273"/>
     </row>
     <row r="70" spans="14:28">
       <c r="N70" s="378"/>
@@ -7189,23 +7217,33 @@
       <c r="Q70" s="377"/>
       <c r="R70" s="377"/>
       <c r="S70" s="377"/>
-      <c r="X70" s="401"/>
-      <c r="Y70" s="296"/>
-      <c r="Z70" s="296" t="s">
+      <c r="X70" s="398"/>
+      <c r="Z70" s="377" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA70" s="395"/>
+      <c r="AB70" s="358">
+        <f>V48</f>
+        <v>-2200.0000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="14:28">
+      <c r="N71" s="378"/>
+      <c r="O71" s="378"/>
+      <c r="P71" s="377"/>
+      <c r="Q71" s="377"/>
+      <c r="R71" s="377"/>
+      <c r="S71" s="377"/>
+      <c r="X71" s="399"/>
+      <c r="Y71" s="296"/>
+      <c r="Z71" s="296" t="s">
         <v>378</v>
       </c>
-      <c r="AA70" s="402"/>
-      <c r="AB70" s="297" t="str">
-        <f>V48</f>
+      <c r="AA71" s="400"/>
+      <c r="AB71" s="297" t="str">
+        <f>V49</f>
         <v>値引き</v>
       </c>
-    </row>
-    <row r="71" spans="14:28">
-      <c r="X71" s="245"/>
-      <c r="Y71" s="245"/>
-      <c r="Z71" s="245"/>
-      <c r="AA71" s="245"/>
-      <c r="AB71" s="245"/>
     </row>
     <row r="72" spans="14:28">
       <c r="X72" s="245"/>
@@ -7214,8 +7252,12 @@
       <c r="AA72" s="245"/>
       <c r="AB72" s="245"/>
     </row>
-    <row r="80" spans="14:28">
-      <c r="O80" s="246"/>
+    <row r="73" spans="14:28">
+      <c r="X73" s="245"/>
+      <c r="Y73" s="245"/>
+      <c r="Z73" s="245"/>
+      <c r="AA73" s="245"/>
+      <c r="AB73" s="245"/>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" s="246"/>
@@ -9989,10 +10031,13 @@
     <row r="1004" spans="15:15">
       <c r="O1004" s="246"/>
     </row>
+    <row r="1005" spans="15:15">
+      <c r="O1005" s="246"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q16:R16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
